--- a/biology/Neurosciences/Tissu_nerveux/Tissu_nerveux.xlsx
+++ b/biology/Neurosciences/Tissu_nerveux/Tissu_nerveux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tissu nerveux assure le fonctionnement intégré des organismes animaux. Les cellules responsables de cette activité sont les neurones (composant 20 % du système) et les cellules gliales (80 %), spécialisées dans la communication de proximité avec d'autres cellules de même type. C'est donc un tissu qui a poussé la perception sensorielle depuis des récepteurs, les intègre et provoque une réaction adaptée de l'organisme en transmettant des informations aux effecteurs (les principaux étant les muscles et les glandes). La complexité du tissu nerveux chez certains organismes aboutit à des réactions extrêmement complexes et variées.
 Le tissu nerveux se différencie du système hormonal par le fait que les communications entre les cellules sont à courte et très courte distance alors que les hormones agissent sur l'organisme entier.
@@ -516,19 +528,130 @@
           <t>Éléments constitutifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SNC est composé de substance blanche (fibres nerveuses myélinisées et cellules gliales), de substance grise (corps cellulaire des neurones, cellules gliales, fibres nerveuses amyéliniques) siège des synapses du SNC, et du système ventriculaire : ventricules latéraux, 3e ventricule, aqueduc de Sylvius, 4e ventricule et canal épendymaire.
 Note : les espaces entre les corps cellulaires et les capillaires sont appelés les neuropiles et contiennent des fibres et de la Matrice Extra Cellulaire (MEC).
-Neurone
-Le tissu nerveux contient des neurones (ou cellules nerveuses) munis de prolongements cytoplasmiques qui, engainés ou non, forment les fibres nerveuses. Les neurones peuvent être de différents types suivant leur localisation (cerveau, cervelet, ganglion nerveux, intestin).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Neurone</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tissu nerveux contient des neurones (ou cellules nerveuses) munis de prolongements cytoplasmiques qui, engainés ou non, forment les fibres nerveuses. Les neurones peuvent être de différents types suivant leur localisation (cerveau, cervelet, ganglion nerveux, intestin).
 Grâce à leurs prolongements, les neurones établissent des relations soit avec d'autres neurones, par l'intermédiaire de synapses interneuronales.
 Ils peuvent également établir des relations avec des cellules réceptrices (synapse neurosensorielle) ainsi qu'avec des cellules effectrices (synapses neuroglandulaires, synapses neuromusculaires).
 Ainsi, les synapses permettent la transmission de l'information via des neurotransmetteurs comme la dopamine, etc.
-Névroglie (cellules gliales)
-Des éléments de soutien sont associés aux neurones. Il s'agit des cellules de la névroglie qui sont dix fois plus nombreuses que les neurones. Il y a deux types de névroglie qui contiennent chacune des types cellulaires différents. La névroglie interstitielle dans le système nerveux central, la névroglie épithéliale qui borde les cavités contenues dans le système nerveux central (ventricules, canal de l'épendyme…) et la névroglie périphérique dans le système nerveux périphérique.
-Névroglie interstitielle
-Astrocyte
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Névroglie (cellules gliales)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des éléments de soutien sont associés aux neurones. Il s'agit des cellules de la névroglie qui sont dix fois plus nombreuses que les neurones. Il y a deux types de névroglie qui contiennent chacune des types cellulaires différents. La névroglie interstitielle dans le système nerveux central, la névroglie épithéliale qui borde les cavités contenues dans le système nerveux central (ventricules, canal de l'épendyme…) et la névroglie périphérique dans le système nerveux périphérique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Névroglie (cellules gliales)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Névroglie interstitielle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astrocyte
 Les astrocytes sont des cellules étoilées munies de nombreux prolongements cellulaires. Ces prolongements vont à la rencontre des neurones pour les soutenir et à la rencontre des capillaires sanguins formant ainsi la barrière hématoencéphalique. Ce sont les cellules gliales les plus abondantes.
 Fonctions
 Soutien des neurones. Ils maintiennent la cohérence du tissu nerveux.
@@ -542,42 +665,122 @@
 Les oligodendrocytes sont des cellules munies de petits prolongements cytoplasmiques peu nombreux.
 Ces prolongements entourent les axones et les myélinisent accélérant ainsi la transmission de l'influx nerveux. Ils constituent 75 % du volume du système nerveux central. Spécifiques de la myélinisation du système nerveux central, ils peuvent myéliniser plusieurs fibres nerveuses alors que les cellules de Schwann (SNP) sont spécifiques d'une fibre lorsqu'ils la myélinisent (en effet, les Fibres Amyélinisées Schwanniennes consistent en plusieurs cylindraxes pour une seule cellule de Schwann).
 Microgliocytes (ou cellules de la microglie)
-Ce sont de petites cellules étoilées qui dérivent de monocytes apportés par le sang. Ce sont les macrophages du système nerveux central. Ils peuvent par activation adopter une forme en fuseau et ainsi se déplacer dans le tissu nerveux. Ils sécrètent des facteurs de croissance indispensables au fonctionnement des neurones et des radicaux libres oxydants qui attaquent les micro-organismes. Ce sont des monocytes qui se sont incorporés dans le tissu nerveux pendant le développement embryonnaire[1].
-Névroglie épithéliale
-Un seul type de cellule la constitue : les cellules épendymaires(ou épendymocytes) qui recouvrent les cavités du système nerveux central et ventricules cérébraux (épendymocytes des plexus choroidien). Ils permettent également l'écoulement du liquide céphalo-rachidien dans la moelle épinière (épendymocytes des plexus extra choroidiens). D'ailleurs lors d'une coupe transversale de moelle épinière, on distingue au centre le canal épendymaire où se trouvent les épendymocytes. Le liquide céphalo-rachidien assure la protection mécanique du cerveau contre des chocs et permet la circulation des microgliocytes.
-Névroglie périphérique
-Elle est constituée des cellules de Schwann qui assurent la myélinisation du système nerveux périphérique et des cellules satellites qui sont impliquées dans le métabolisme du système nerveux périphérique.
+Ce sont de petites cellules étoilées qui dérivent de monocytes apportés par le sang. Ce sont les macrophages du système nerveux central. Ils peuvent par activation adopter une forme en fuseau et ainsi se déplacer dans le tissu nerveux. Ils sécrètent des facteurs de croissance indispensables au fonctionnement des neurones et des radicaux libres oxydants qui attaquent les micro-organismes. Ce sont des monocytes qui se sont incorporés dans le tissu nerveux pendant le développement embryonnaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Névroglie (cellules gliales)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Névroglie épithéliale</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un seul type de cellule la constitue : les cellules épendymaires(ou épendymocytes) qui recouvrent les cavités du système nerveux central et ventricules cérébraux (épendymocytes des plexus choroidien). Ils permettent également l'écoulement du liquide céphalo-rachidien dans la moelle épinière (épendymocytes des plexus extra choroidiens). D'ailleurs lors d'une coupe transversale de moelle épinière, on distingue au centre le canal épendymaire où se trouvent les épendymocytes. Le liquide céphalo-rachidien assure la protection mécanique du cerveau contre des chocs et permet la circulation des microgliocytes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tissu_nerveux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Éléments constitutifs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Névroglie (cellules gliales)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Névroglie périphérique</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est constituée des cellules de Schwann qui assurent la myélinisation du système nerveux périphérique et des cellules satellites qui sont impliquées dans le métabolisme du système nerveux périphérique.
 Barrière hémato-encéphalique
 La diffusion de certaines molécules du sang dans le SNC est empêchée par une barrière appelée « barrière hémato-encéphalique » ou BHE. En effet les cellules endothéliales (cellules des capillaires sanguins) sont au niveau de cette barrière reliées par des dispositifs protéiques permettant à ces cellules d'être très « accolées ». Cet « accolement important » empêche des molécules issues du sang de passer entre les cellules (absence de flux intercellulaires) et d'arriver dans le SNC, cela est permis grâce à des jonctions serrées.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Tissu_nerveux</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tissu_nerveux</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Colorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux types de colorations particulières sont utilisées pour étudier le tissu nerveux au niveau du système central : des « bichromes » et des imprégnations argentiques.
 Les « bichromes », comme le Dominici, associent un colorant basique (bleu de toluidine) mettant en évidence les structures basophiles (corps de Nissl, le noyau) et un colorant cytoplasmique acide. L'absence de tissu conjonctif au niveau du système nerveux central rend inutile l'utilisation d'un troisième colorant.
